--- a/inst/extdata/fake_dataset.xlsx
+++ b/inst/extdata/fake_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenajovic/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenajovic/Desktop/BCB410 - R/PerfOMICS/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D492BED-603C-8741-9345-E8999F31CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEEF0AB-BFA3-374B-8F8A-E35B73F2B0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15180" xr2:uid="{6C026D5A-EBE4-9442-AE41-F102D85A2B1B}"/>
   </bookViews>
@@ -144,7 +144,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +153,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -207,7 +213,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,13 +531,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0976F45-38BD-F24B-9859-87AD5C5AC201}">
   <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
